--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -351,13 +351,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1"/>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>c0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>c0_c1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>gde</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>242.7104</v>
+      </c>
+      <c r="E2">
+        <v>665.8231</v>
+      </c>
+      <c r="F2">
+        <v>282.15</v>
+      </c>
+      <c r="G2">
+        <v>0.3645268540547782</v>
+      </c>
+      <c r="H2">
+        <v>159021056.9176</v>
+      </c>
+      <c r="I2">
+        <v>-5.6901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B2">
@@ -419,22 +419,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>242.7104</v>
+        <v>285.635</v>
       </c>
       <c r="E2">
-        <v>665.8231</v>
+        <v>1274.1262</v>
       </c>
       <c r="F2">
-        <v>282.15</v>
+        <v>354.76</v>
       </c>
       <c r="G2">
-        <v>0.3645268540547782</v>
+        <v>0.2241810897539035</v>
       </c>
       <c r="H2">
-        <v>159021056.9176</v>
+        <v>209321758.9299</v>
       </c>
       <c r="I2">
-        <v>-5.6901</v>
+        <v>-1.9552</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B2">
@@ -415,26 +415,917 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>228.5318</v>
+      </c>
+      <c r="E2">
+        <v>228.5318</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>46001327.3484</v>
+      </c>
+      <c r="I2">
+        <v>-0.379</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Exp</t>
         </is>
       </c>
-      <c r="D2">
-        <v>285.635</v>
-      </c>
-      <c r="E2">
-        <v>1274.1262</v>
-      </c>
-      <c r="F2">
-        <v>354.76</v>
-      </c>
-      <c r="G2">
-        <v>0.2241810897539035</v>
-      </c>
-      <c r="H2">
-        <v>209321758.9299</v>
-      </c>
-      <c r="I2">
-        <v>-1.9552</v>
+      <c r="D3">
+        <v>141.8649</v>
+      </c>
+      <c r="E3">
+        <v>163.0207</v>
+      </c>
+      <c r="F3">
+        <v>0.66</v>
+      </c>
+      <c r="G3">
+        <v>0.8702262964151178</v>
+      </c>
+      <c r="H3">
+        <v>6481323.8511</v>
+      </c>
+      <c r="I3">
+        <v>0.0405</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>180.5355</v>
+      </c>
+      <c r="E4">
+        <v>191.7625</v>
+      </c>
+      <c r="F4">
+        <v>1.11</v>
+      </c>
+      <c r="G4">
+        <v>0.9414536210155792</v>
+      </c>
+      <c r="H4">
+        <v>111868883.3349</v>
+      </c>
+      <c r="I4">
+        <v>-0.0585</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>266.1463</v>
+      </c>
+      <c r="E5">
+        <v>3063447.249</v>
+      </c>
+      <c r="F5">
+        <v>1310.47</v>
+      </c>
+      <c r="G5">
+        <v>8.68780424036608E-05</v>
+      </c>
+      <c r="H5">
+        <v>32823863.8429</v>
+      </c>
+      <c r="I5">
+        <v>-14.518</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>2019</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>187.7327</v>
+      </c>
+      <c r="E6">
+        <v>199.2547</v>
+      </c>
+      <c r="F6">
+        <v>0.12</v>
+      </c>
+      <c r="G6">
+        <v>0.9421745133239016</v>
+      </c>
+      <c r="H6">
+        <v>28591711.1464</v>
+      </c>
+      <c r="I6">
+        <v>-0.0209</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>224.2645</v>
+      </c>
+      <c r="E7">
+        <v>224.2645</v>
+      </c>
+      <c r="F7">
+        <v>10.39</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2543072.0551</v>
+      </c>
+      <c r="I7">
+        <v>-0.0001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>210.7911</v>
+      </c>
+      <c r="E8">
+        <v>504.1012</v>
+      </c>
+      <c r="F8">
+        <v>281.13</v>
+      </c>
+      <c r="G8">
+        <v>0.4181523471874298</v>
+      </c>
+      <c r="H8">
+        <v>83003402.13429999</v>
+      </c>
+      <c r="I8">
+        <v>-0.7405</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>148.7208</v>
+      </c>
+      <c r="E9">
+        <v>1554971.7349</v>
+      </c>
+      <c r="F9">
+        <v>1322.21</v>
+      </c>
+      <c r="G9">
+        <v>9.564212433068066E-05</v>
+      </c>
+      <c r="H9">
+        <v>33258637.0751</v>
+      </c>
+      <c r="I9">
+        <v>-9.5059</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>2017</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>131.0834</v>
+      </c>
+      <c r="E10">
+        <v>2742.4992</v>
+      </c>
+      <c r="F10">
+        <v>884.3099999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.04779706043305318</v>
+      </c>
+      <c r="H10">
+        <v>104058570.8272</v>
+      </c>
+      <c r="I10">
+        <v>0.2163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>175.4753</v>
+      </c>
+      <c r="E11">
+        <v>199.3392</v>
+      </c>
+      <c r="F11">
+        <v>2.07</v>
+      </c>
+      <c r="G11">
+        <v>0.8802849615128384</v>
+      </c>
+      <c r="H11">
+        <v>1620778.5732</v>
+      </c>
+      <c r="I11">
+        <v>-0.2385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>67.1343</v>
+      </c>
+      <c r="E12">
+        <v>2089.5911</v>
+      </c>
+      <c r="F12">
+        <v>393.88</v>
+      </c>
+      <c r="G12">
+        <v>0.03212796034592605</v>
+      </c>
+      <c r="H12">
+        <v>4178600590.1632</v>
+      </c>
+      <c r="I12">
+        <v>-1.1043</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>172.3213</v>
+      </c>
+      <c r="E13">
+        <v>188.2387</v>
+      </c>
+      <c r="F13">
+        <v>4.3</v>
+      </c>
+      <c r="G13">
+        <v>0.9154403425013028</v>
+      </c>
+      <c r="H13">
+        <v>1391363.4016</v>
+      </c>
+      <c r="I13">
+        <v>0.1061</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>268.9262</v>
+      </c>
+      <c r="E14">
+        <v>2314172.8993</v>
+      </c>
+      <c r="F14">
+        <v>829.52</v>
+      </c>
+      <c r="G14">
+        <v>0.0001162083438455898</v>
+      </c>
+      <c r="H14">
+        <v>197479025.0411</v>
+      </c>
+      <c r="I14">
+        <v>-3.6724</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>2016</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>272.2755</v>
+      </c>
+      <c r="E15">
+        <v>579701.5377</v>
+      </c>
+      <c r="F15">
+        <v>545.79</v>
+      </c>
+      <c r="G15">
+        <v>0.0004696822110913646</v>
+      </c>
+      <c r="H15">
+        <v>29369734.9124</v>
+      </c>
+      <c r="I15">
+        <v>0.7988</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>2017</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>226.2037</v>
+      </c>
+      <c r="E16">
+        <v>239.5188</v>
+      </c>
+      <c r="F16">
+        <v>0.39</v>
+      </c>
+      <c r="G16">
+        <v>0.9444089566246991</v>
+      </c>
+      <c r="H16">
+        <v>39243300.3177</v>
+      </c>
+      <c r="I16">
+        <v>-0.0101</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>2018</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>510.6459</v>
+      </c>
+      <c r="E17">
+        <v>5344400.0029</v>
+      </c>
+      <c r="F17">
+        <v>994.97</v>
+      </c>
+      <c r="G17">
+        <v>9.554784442087257E-05</v>
+      </c>
+      <c r="H17">
+        <v>254769543.8192</v>
+      </c>
+      <c r="I17">
+        <v>-0.8612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>278.5575</v>
+      </c>
+      <c r="E18">
+        <v>335.2016</v>
+      </c>
+      <c r="F18">
+        <v>1.73</v>
+      </c>
+      <c r="G18">
+        <v>0.8310148280915127</v>
+      </c>
+      <c r="H18">
+        <v>28869365.4349</v>
+      </c>
+      <c r="I18">
+        <v>-0.07820000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>280.5324</v>
+      </c>
+      <c r="E19">
+        <v>288.5674</v>
+      </c>
+      <c r="F19">
+        <v>0.04</v>
+      </c>
+      <c r="G19">
+        <v>0.972155551874536</v>
+      </c>
+      <c r="H19">
+        <v>146219714.8017</v>
+      </c>
+      <c r="I19">
+        <v>-0.0328</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B20">
+        <v>2015</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>282.2982</v>
+      </c>
+      <c r="E20">
+        <v>1775014.1943</v>
+      </c>
+      <c r="F20">
+        <v>1511.18</v>
+      </c>
+      <c r="G20">
+        <v>0.0001590399676275986</v>
+      </c>
+      <c r="H20">
+        <v>180784371.0018</v>
+      </c>
+      <c r="I20">
+        <v>-8.8003</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B21">
+        <v>2016</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>186.9699</v>
+      </c>
+      <c r="E21">
+        <v>740.7676</v>
+      </c>
+      <c r="F21">
+        <v>722.0599999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.2524002129682777</v>
+      </c>
+      <c r="H21">
+        <v>12500586.9887</v>
+      </c>
+      <c r="I21">
+        <v>0.3357</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>228.6624</v>
+      </c>
+      <c r="E22">
+        <v>1210.0969</v>
+      </c>
+      <c r="F22">
+        <v>452.34</v>
+      </c>
+      <c r="G22">
+        <v>0.1889620575013455</v>
+      </c>
+      <c r="H22">
+        <v>27970737.3688</v>
+      </c>
+      <c r="I22">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B23">
+        <v>2018</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>259.3214</v>
+      </c>
+      <c r="E23">
+        <v>1348.7459</v>
+      </c>
+      <c r="F23">
+        <v>541.78</v>
+      </c>
+      <c r="G23">
+        <v>0.1922685362750686</v>
+      </c>
+      <c r="H23">
+        <v>49398677.9871</v>
+      </c>
+      <c r="I23">
+        <v>0.3329</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B24">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>301.8553</v>
+      </c>
+      <c r="E24">
+        <v>2606517.0548</v>
+      </c>
+      <c r="F24">
+        <v>1587.07</v>
+      </c>
+      <c r="G24">
+        <v>0.000115807912879036</v>
+      </c>
+      <c r="H24">
+        <v>328390385.5439</v>
+      </c>
+      <c r="I24">
+        <v>-1.5661</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>278.9072</v>
+      </c>
+      <c r="E25">
+        <v>470363.4406</v>
+      </c>
+      <c r="F25">
+        <v>1222.3</v>
+      </c>
+      <c r="G25">
+        <v>0.0005929610508083353</v>
+      </c>
+      <c r="H25">
+        <v>24710312.6385</v>
+      </c>
+      <c r="I25">
+        <v>-0.4887</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>242.8279</v>
+      </c>
+      <c r="E26">
+        <v>6068071.0977</v>
+      </c>
+      <c r="F26">
+        <v>1264.19</v>
+      </c>
+      <c r="G26">
+        <v>4.001731293030496E-05</v>
+      </c>
+      <c r="H26">
+        <v>428932528.9249</v>
+      </c>
+      <c r="I26">
+        <v>-14.0345</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>146.4613</v>
+      </c>
+      <c r="E27">
+        <v>159.7046</v>
+      </c>
+      <c r="F27">
+        <v>1.02</v>
+      </c>
+      <c r="G27">
+        <v>0.9170762770765526</v>
+      </c>
+      <c r="H27">
+        <v>3405224.1434</v>
+      </c>
+      <c r="I27">
+        <v>0.1719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B28">
+        <v>2017</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>191.8121</v>
+      </c>
+      <c r="E28">
+        <v>213.1666</v>
+      </c>
+      <c r="F28">
+        <v>6.7</v>
+      </c>
+      <c r="G28">
+        <v>0.8998224862619191</v>
+      </c>
+      <c r="H28">
+        <v>6706161.7727</v>
+      </c>
+      <c r="I28">
+        <v>0.1596</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B29">
+        <v>2018</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>155.7632</v>
+      </c>
+      <c r="E29">
+        <v>238.3478</v>
+      </c>
+      <c r="F29">
+        <v>0.29</v>
+      </c>
+      <c r="G29">
+        <v>0.6535122203771128</v>
+      </c>
+      <c r="H29">
+        <v>621440803.9005001</v>
+      </c>
+      <c r="I29">
+        <v>-0.0263</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,26 +415,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D2">
-        <v>228.5318</v>
+        <v>9.1868</v>
       </c>
       <c r="E2">
-        <v>228.5318</v>
+        <v>68.5638</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.1339890729510325</v>
       </c>
       <c r="H2">
-        <v>46001327.3484</v>
+        <v>48533979422205.02</v>
       </c>
       <c r="I2">
-        <v>-0.379</v>
+        <v>-1.6288</v>
       </c>
     </row>
     <row r="3">
@@ -452,22 +452,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>141.8649</v>
+        <v>141.8609</v>
       </c>
       <c r="E3">
-        <v>163.0207</v>
+        <v>163.0171</v>
       </c>
       <c r="F3">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="G3">
-        <v>0.8702262964151178</v>
+        <v>0.8702209768177693</v>
       </c>
       <c r="H3">
-        <v>6481323.8511</v>
+        <v>10549768.4979</v>
       </c>
       <c r="I3">
-        <v>0.0405</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="4">
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>180.5355</v>
+        <v>180.5309</v>
       </c>
       <c r="E4">
-        <v>191.7625</v>
+        <v>191.2037</v>
       </c>
       <c r="F4">
-        <v>1.11</v>
+        <v>0.97</v>
       </c>
       <c r="G4">
-        <v>0.9414536210155792</v>
+        <v>0.9441809964974528</v>
       </c>
       <c r="H4">
-        <v>111868883.3349</v>
+        <v>72932725.0883</v>
       </c>
       <c r="I4">
-        <v>-0.0585</v>
+        <v>-0.0118</v>
       </c>
     </row>
     <row r="5">
@@ -514,26 +514,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D5">
-        <v>266.1463</v>
+        <v>97.7889</v>
       </c>
       <c r="E5">
-        <v>3063447.249</v>
+        <v>304.4531</v>
       </c>
       <c r="F5">
-        <v>1310.47</v>
+        <v>0.45</v>
       </c>
       <c r="G5">
-        <v>8.68780424036608E-05</v>
+        <v>0.3211952842654583</v>
       </c>
       <c r="H5">
-        <v>32823863.8429</v>
+        <v>167601377.2439</v>
       </c>
       <c r="I5">
-        <v>-14.518</v>
+        <v>0.0267</v>
       </c>
     </row>
     <row r="6">
@@ -547,26 +547,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D6">
-        <v>187.7327</v>
+        <v>188.0764</v>
       </c>
       <c r="E6">
-        <v>199.2547</v>
+        <v>201.3225</v>
       </c>
       <c r="F6">
-        <v>0.12</v>
+        <v>1.82</v>
       </c>
       <c r="G6">
-        <v>0.9421745133239016</v>
+        <v>0.9342045722658918</v>
       </c>
       <c r="H6">
-        <v>28591711.1464</v>
+        <v>17580718.3172</v>
       </c>
       <c r="I6">
-        <v>-0.0209</v>
+        <v>-0.0456</v>
       </c>
     </row>
     <row r="7">
@@ -584,22 +584,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>224.2645</v>
+        <v>212.9603</v>
       </c>
       <c r="E7">
-        <v>224.2645</v>
+        <v>212.9693</v>
       </c>
       <c r="F7">
-        <v>10.39</v>
+        <v>41.79</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.9999577403879336</v>
       </c>
       <c r="H7">
-        <v>2543072.0551</v>
+        <v>81945553.5627</v>
       </c>
       <c r="I7">
-        <v>-0.0001</v>
+        <v>-0.0469</v>
       </c>
     </row>
     <row r="8">
@@ -613,26 +613,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D8">
-        <v>210.7911</v>
+        <v>210.7451</v>
       </c>
       <c r="E8">
-        <v>504.1012</v>
+        <v>2650116.7852</v>
       </c>
       <c r="F8">
-        <v>281.13</v>
+        <v>1966.72</v>
       </c>
       <c r="G8">
-        <v>0.4181523471874298</v>
+        <v>7.952294826286134E-05</v>
       </c>
       <c r="H8">
-        <v>83003402.13429999</v>
+        <v>52049794.887</v>
       </c>
       <c r="I8">
-        <v>-0.7405</v>
+        <v>-7.4431</v>
       </c>
     </row>
     <row r="9">
@@ -646,26 +646,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D9">
-        <v>148.7208</v>
+        <v>149.0401</v>
       </c>
       <c r="E9">
-        <v>1554971.7349</v>
+        <v>509.6292</v>
       </c>
       <c r="F9">
-        <v>1322.21</v>
+        <v>55.3</v>
       </c>
       <c r="G9">
-        <v>9.564212433068066E-05</v>
+        <v>0.2924481171800988</v>
       </c>
       <c r="H9">
-        <v>33258637.0751</v>
+        <v>44208762.9972</v>
       </c>
       <c r="I9">
-        <v>-9.5059</v>
+        <v>-1.7189</v>
       </c>
     </row>
     <row r="10">
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>131.0834</v>
+        <v>150.0045</v>
       </c>
       <c r="E10">
-        <v>2742.4992</v>
+        <v>208.4849</v>
       </c>
       <c r="F10">
-        <v>884.3099999999999</v>
+        <v>30.79</v>
       </c>
       <c r="G10">
-        <v>0.04779706043305318</v>
+        <v>0.7194981507053988</v>
       </c>
       <c r="H10">
-        <v>104058570.8272</v>
+        <v>2653164.836</v>
       </c>
       <c r="I10">
-        <v>0.2163</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="11">
@@ -749,22 +749,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>67.1343</v>
+        <v>67.7856</v>
       </c>
       <c r="E12">
-        <v>2089.5911</v>
+        <v>2051.8519</v>
       </c>
       <c r="F12">
-        <v>393.88</v>
+        <v>385.48</v>
       </c>
       <c r="G12">
-        <v>0.03212796034592605</v>
+        <v>0.03303630247387738</v>
       </c>
       <c r="H12">
-        <v>4178600590.1632</v>
+        <v>17273879446.5675</v>
       </c>
       <c r="I12">
-        <v>-1.1043</v>
+        <v>-0.8225</v>
       </c>
     </row>
     <row r="13">
@@ -778,26 +778,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D13">
-        <v>172.3213</v>
+        <v>167.2398</v>
       </c>
       <c r="E13">
-        <v>188.2387</v>
+        <v>186.524</v>
       </c>
       <c r="F13">
-        <v>4.3</v>
+        <v>2.62</v>
       </c>
       <c r="G13">
-        <v>0.9154403425013028</v>
+        <v>0.8966127683300809</v>
       </c>
       <c r="H13">
-        <v>1391363.4016</v>
+        <v>323457.7288</v>
       </c>
       <c r="I13">
-        <v>0.1061</v>
+        <v>-0.015</v>
       </c>
     </row>
     <row r="14">
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>268.9262</v>
+        <v>259.5819</v>
       </c>
       <c r="E14">
-        <v>2314172.8993</v>
+        <v>285.3169</v>
       </c>
       <c r="F14">
-        <v>829.52</v>
+        <v>2.09</v>
       </c>
       <c r="G14">
-        <v>0.0001162083438455898</v>
+        <v>0.9098020481787096</v>
       </c>
       <c r="H14">
-        <v>197479025.0411</v>
+        <v>1290793.4812</v>
       </c>
       <c r="I14">
-        <v>-3.6724</v>
+        <v>-0.153</v>
       </c>
     </row>
     <row r="15">
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>272.2755</v>
+        <v>285.1397</v>
       </c>
       <c r="E15">
-        <v>579701.5377</v>
+        <v>2781591.2417</v>
       </c>
       <c r="F15">
-        <v>545.79</v>
+        <v>933.61</v>
       </c>
       <c r="G15">
-        <v>0.0004696822110913646</v>
+        <v>0.0001025095620540327</v>
       </c>
       <c r="H15">
-        <v>29369734.9124</v>
+        <v>111894461.2288</v>
       </c>
       <c r="I15">
-        <v>0.7988</v>
+        <v>-0.1606</v>
       </c>
     </row>
     <row r="16">
@@ -877,26 +877,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D16">
-        <v>226.2037</v>
+        <v>225.8824</v>
       </c>
       <c r="E16">
-        <v>239.5188</v>
+        <v>250.564</v>
       </c>
       <c r="F16">
-        <v>0.39</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G16">
-        <v>0.9444089566246991</v>
+        <v>0.9014958254178572</v>
       </c>
       <c r="H16">
-        <v>39243300.3177</v>
+        <v>2775941.6876</v>
       </c>
       <c r="I16">
-        <v>-0.0101</v>
+        <v>0.3049</v>
       </c>
     </row>
     <row r="17">
@@ -910,26 +910,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D17">
-        <v>510.6459</v>
+        <v>95.06229999999999</v>
       </c>
       <c r="E17">
-        <v>5344400.0029</v>
+        <v>918.0499</v>
       </c>
       <c r="F17">
-        <v>994.97</v>
+        <v>33.3</v>
       </c>
       <c r="G17">
-        <v>9.554784442087257E-05</v>
+        <v>0.1035480751100784</v>
       </c>
       <c r="H17">
-        <v>254769543.8192</v>
+        <v>24532592983.4695</v>
       </c>
       <c r="I17">
-        <v>-0.8612</v>
+        <v>-7.0143</v>
       </c>
     </row>
     <row r="18">
@@ -943,26 +943,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D18">
-        <v>278.5575</v>
+        <v>284.4788</v>
       </c>
       <c r="E18">
-        <v>335.2016</v>
+        <v>315.6029</v>
       </c>
       <c r="F18">
-        <v>1.73</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.8310148280915127</v>
+        <v>0.9013820848921223</v>
       </c>
       <c r="H18">
-        <v>28869365.4349</v>
+        <v>153943008.8498</v>
       </c>
       <c r="I18">
-        <v>-0.07820000000000001</v>
+        <v>-0.3739</v>
       </c>
     </row>
     <row r="19">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>280.5324</v>
+        <v>281.7069</v>
       </c>
       <c r="E19">
-        <v>288.5674</v>
+        <v>622.686</v>
       </c>
       <c r="F19">
-        <v>0.04</v>
+        <v>133.02</v>
       </c>
       <c r="G19">
-        <v>0.972155551874536</v>
+        <v>0.4524060280783573</v>
       </c>
       <c r="H19">
-        <v>146219714.8017</v>
+        <v>7786350.2862</v>
       </c>
       <c r="I19">
-        <v>-0.0328</v>
+        <v>0.0728</v>
       </c>
     </row>
     <row r="20">
@@ -1009,26 +1009,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D20">
-        <v>282.2982</v>
+        <v>280.2944</v>
       </c>
       <c r="E20">
-        <v>1775014.1943</v>
+        <v>588.3081</v>
       </c>
       <c r="F20">
-        <v>1511.18</v>
+        <v>79.98</v>
       </c>
       <c r="G20">
-        <v>0.0001590399676275986</v>
+        <v>0.4764415108342041</v>
       </c>
       <c r="H20">
-        <v>180784371.0018</v>
+        <v>105176441.6944</v>
       </c>
       <c r="I20">
-        <v>-8.8003</v>
+        <v>0.3092</v>
       </c>
     </row>
     <row r="21">
@@ -1042,26 +1042,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D21">
-        <v>186.9699</v>
+        <v>182.5403</v>
       </c>
       <c r="E21">
-        <v>740.7676</v>
+        <v>207.4202</v>
       </c>
       <c r="F21">
-        <v>722.0599999999999</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="G21">
-        <v>0.2524002129682777</v>
+        <v>0.880050737584864</v>
       </c>
       <c r="H21">
-        <v>12500586.9887</v>
+        <v>33183238.3176</v>
       </c>
       <c r="I21">
-        <v>0.3357</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="22">
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>228.6624</v>
+        <v>209.2492</v>
       </c>
       <c r="E22">
-        <v>1210.0969</v>
+        <v>3732.2371</v>
       </c>
       <c r="F22">
-        <v>452.34</v>
+        <v>786.24</v>
       </c>
       <c r="G22">
-        <v>0.1889620575013455</v>
+        <v>0.0560653555477491</v>
       </c>
       <c r="H22">
-        <v>27970737.3688</v>
+        <v>1090703134.3701</v>
       </c>
       <c r="I22">
-        <v>0.571</v>
+        <v>0.5199</v>
       </c>
     </row>
     <row r="23">
@@ -1112,22 +1112,22 @@
         </is>
       </c>
       <c r="D23">
-        <v>259.3214</v>
+        <v>257.9469</v>
       </c>
       <c r="E23">
-        <v>1348.7459</v>
+        <v>2485.7772</v>
       </c>
       <c r="F23">
-        <v>541.78</v>
+        <v>855.39</v>
       </c>
       <c r="G23">
-        <v>0.1922685362750686</v>
+        <v>0.1037691149472286</v>
       </c>
       <c r="H23">
-        <v>49398677.9871</v>
+        <v>35928493.2927</v>
       </c>
       <c r="I23">
-        <v>0.3329</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="24">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D24">
-        <v>301.8553</v>
+        <v>218.4007</v>
       </c>
       <c r="E24">
-        <v>2606517.0548</v>
+        <v>2771.9139</v>
       </c>
       <c r="F24">
-        <v>1587.07</v>
+        <v>499.76</v>
       </c>
       <c r="G24">
-        <v>0.000115807912879036</v>
+        <v>0.07879057859625438</v>
       </c>
       <c r="H24">
-        <v>328390385.5439</v>
+        <v>10325054493.9236</v>
       </c>
       <c r="I24">
-        <v>-1.5661</v>
+        <v>-0.3904</v>
       </c>
     </row>
     <row r="25">
@@ -1178,22 +1178,22 @@
         </is>
       </c>
       <c r="D25">
-        <v>278.9072</v>
+        <v>278.663</v>
       </c>
       <c r="E25">
-        <v>470363.4406</v>
+        <v>442138.6957</v>
       </c>
       <c r="F25">
-        <v>1222.3</v>
+        <v>1409.52</v>
       </c>
       <c r="G25">
-        <v>0.0005929610508083353</v>
+        <v>0.0006302615055187987</v>
       </c>
       <c r="H25">
-        <v>24710312.6385</v>
+        <v>17415121.0538</v>
       </c>
       <c r="I25">
-        <v>-0.4887</v>
+        <v>-2.771</v>
       </c>
     </row>
     <row r="26">
@@ -1207,26 +1207,26 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D26">
-        <v>242.8279</v>
+        <v>193.6977</v>
       </c>
       <c r="E26">
-        <v>6068071.0977</v>
+        <v>617.5034000000001</v>
       </c>
       <c r="F26">
-        <v>1264.19</v>
+        <v>34.59</v>
       </c>
       <c r="G26">
-        <v>4.001731293030496E-05</v>
+        <v>0.313678758691855</v>
       </c>
       <c r="H26">
-        <v>428932528.9249</v>
+        <v>192827783781.4646</v>
       </c>
       <c r="I26">
-        <v>-14.0345</v>
+        <v>-1.9656</v>
       </c>
     </row>
     <row r="27">
@@ -1240,26 +1240,26 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D27">
-        <v>146.4613</v>
+        <v>144.5362</v>
       </c>
       <c r="E27">
-        <v>159.7046</v>
+        <v>165.0389</v>
       </c>
       <c r="F27">
-        <v>1.02</v>
+        <v>2.08</v>
       </c>
       <c r="G27">
-        <v>0.9170762770765526</v>
+        <v>0.8757705001669304</v>
       </c>
       <c r="H27">
-        <v>3405224.1434</v>
+        <v>27909113.9696</v>
       </c>
       <c r="I27">
-        <v>0.1719</v>
+        <v>-0.08749999999999999</v>
       </c>
     </row>
     <row r="28">
@@ -1273,26 +1273,26 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D28">
-        <v>191.8121</v>
+        <v>167.4818</v>
       </c>
       <c r="E28">
-        <v>213.1666</v>
+        <v>209.1783</v>
       </c>
       <c r="F28">
-        <v>6.7</v>
+        <v>0.92</v>
       </c>
       <c r="G28">
-        <v>0.8998224862619191</v>
+        <v>0.8006652697722468</v>
       </c>
       <c r="H28">
-        <v>6706161.7727</v>
+        <v>3661039.193</v>
       </c>
       <c r="I28">
-        <v>0.1596</v>
+        <v>0.4929</v>
       </c>
     </row>
     <row r="29">
@@ -1310,22 +1310,88 @@
         </is>
       </c>
       <c r="D29">
-        <v>155.7632</v>
+        <v>174.9313</v>
       </c>
       <c r="E29">
-        <v>238.3478</v>
+        <v>184.6152</v>
       </c>
       <c r="F29">
-        <v>0.29</v>
+        <v>0.18</v>
       </c>
       <c r="G29">
-        <v>0.6535122203771128</v>
+        <v>0.947545489212156</v>
       </c>
       <c r="H29">
-        <v>621440803.9005001</v>
+        <v>633979657.6672</v>
       </c>
       <c r="I29">
-        <v>-0.0263</v>
+        <v>-2.9386</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>159.9252</v>
+      </c>
+      <c r="E30">
+        <v>182.2689</v>
+      </c>
+      <c r="F30">
+        <v>3.44</v>
+      </c>
+      <c r="G30">
+        <v>0.8774135357156376</v>
+      </c>
+      <c r="H30">
+        <v>667720.0107</v>
+      </c>
+      <c r="I30">
+        <v>0.3915</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>183.5904</v>
+      </c>
+      <c r="E31">
+        <v>154253.1845</v>
+      </c>
+      <c r="F31">
+        <v>765.24</v>
+      </c>
+      <c r="G31">
+        <v>0.00119018871859984</v>
+      </c>
+      <c r="H31">
+        <v>2565007.9073</v>
+      </c>
+      <c r="I31">
+        <v>-0.7467</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,26 +415,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D2">
-        <v>9.1868</v>
+        <v>2.1991</v>
       </c>
       <c r="E2">
-        <v>68.5638</v>
+        <v>125.1426</v>
       </c>
       <c r="F2">
-        <v>2.54</v>
+        <v>9.08</v>
       </c>
       <c r="G2">
-        <v>0.1339890729510325</v>
+        <v>0.01757275300337375</v>
       </c>
       <c r="H2">
-        <v>48533979422205.02</v>
+        <v>52161602567903.15</v>
       </c>
       <c r="I2">
-        <v>-1.6288</v>
+        <v>-1.4099</v>
       </c>
     </row>
     <row r="3">
@@ -444,73 +444,73 @@
         </is>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D3">
-        <v>141.8609</v>
+        <v>225.4026</v>
       </c>
       <c r="E3">
-        <v>163.0171</v>
+        <v>534896.7028</v>
       </c>
       <c r="F3">
-        <v>0.65</v>
+        <v>658.3099999999999</v>
       </c>
       <c r="G3">
-        <v>0.8702209768177693</v>
+        <v>0.0004213946334312682</v>
       </c>
       <c r="H3">
-        <v>10549768.4979</v>
+        <v>9267510.0242</v>
       </c>
       <c r="I3">
-        <v>0.0125</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B4">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D4">
-        <v>180.5309</v>
+        <v>139.8351</v>
       </c>
       <c r="E4">
-        <v>191.2037</v>
+        <v>1645.2791</v>
       </c>
       <c r="F4">
-        <v>0.97</v>
+        <v>536.14</v>
       </c>
       <c r="G4">
-        <v>0.9441809964974528</v>
+        <v>0.08499171964197443</v>
       </c>
       <c r="H4">
-        <v>72932725.0883</v>
+        <v>1739032926.4172</v>
       </c>
       <c r="I4">
-        <v>-0.0118</v>
+        <v>-5.6564</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B5">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -518,88 +518,88 @@
         </is>
       </c>
       <c r="D5">
-        <v>97.7889</v>
+        <v>89.6908</v>
       </c>
       <c r="E5">
-        <v>304.4531</v>
+        <v>2351.7825</v>
       </c>
       <c r="F5">
-        <v>0.45</v>
+        <v>530.29</v>
       </c>
       <c r="G5">
-        <v>0.3211952842654583</v>
+        <v>0.03813737027127296</v>
       </c>
       <c r="H5">
-        <v>167601377.2439</v>
+        <v>1312659895.6282</v>
       </c>
       <c r="I5">
-        <v>0.0267</v>
+        <v>-1.3058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B6">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D6">
-        <v>188.0764</v>
+        <v>133.7942</v>
       </c>
       <c r="E6">
-        <v>201.3225</v>
+        <v>2598.5304</v>
       </c>
       <c r="F6">
-        <v>1.82</v>
+        <v>851.71</v>
       </c>
       <c r="G6">
-        <v>0.9342045722658918</v>
+        <v>0.05148841052619588</v>
       </c>
       <c r="H6">
-        <v>17580718.3172</v>
+        <v>194059773.4368</v>
       </c>
       <c r="I6">
-        <v>-0.0456</v>
+        <v>-2.9551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B7">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D7">
-        <v>212.9603</v>
+        <v>114.4458</v>
       </c>
       <c r="E7">
-        <v>212.9693</v>
+        <v>197.2709</v>
       </c>
       <c r="F7">
-        <v>41.79</v>
+        <v>0.3</v>
       </c>
       <c r="G7">
-        <v>0.9999577403879336</v>
+        <v>0.5801453736967794</v>
       </c>
       <c r="H7">
-        <v>81945553.5627</v>
+        <v>30985681.3542</v>
       </c>
       <c r="I7">
-        <v>-0.0469</v>
+        <v>-0.318</v>
       </c>
     </row>
     <row r="8">
@@ -609,30 +609,30 @@
         </is>
       </c>
       <c r="B8">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D8">
-        <v>210.7451</v>
+        <v>70.0402</v>
       </c>
       <c r="E8">
-        <v>2650116.7852</v>
+        <v>1981.3959</v>
       </c>
       <c r="F8">
-        <v>1966.72</v>
+        <v>375.3</v>
       </c>
       <c r="G8">
-        <v>7.952294826286134E-05</v>
+        <v>0.03534891739707344</v>
       </c>
       <c r="H8">
-        <v>52049794.887</v>
+        <v>16369125266.8306</v>
       </c>
       <c r="I8">
-        <v>-7.4431</v>
+        <v>-10.5399</v>
       </c>
     </row>
     <row r="9">
@@ -642,30 +642,30 @@
         </is>
       </c>
       <c r="B9">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D9">
-        <v>149.0401</v>
+        <v>160.6886</v>
       </c>
       <c r="E9">
-        <v>509.6292</v>
+        <v>188.0599</v>
       </c>
       <c r="F9">
-        <v>55.3</v>
+        <v>1.24</v>
       </c>
       <c r="G9">
-        <v>0.2924481171800988</v>
+        <v>0.8544543520442157</v>
       </c>
       <c r="H9">
-        <v>44208762.9972</v>
+        <v>27408764.5843</v>
       </c>
       <c r="I9">
-        <v>-1.7189</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="10">
@@ -675,102 +675,102 @@
         </is>
       </c>
       <c r="B10">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D10">
-        <v>150.0045</v>
+        <v>262.0636</v>
       </c>
       <c r="E10">
-        <v>208.4849</v>
+        <v>346297.1147</v>
       </c>
       <c r="F10">
-        <v>30.79</v>
+        <v>1317.52</v>
       </c>
       <c r="G10">
-        <v>0.7194981507053988</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H10">
-        <v>2653164.836</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I10">
-        <v>0.391</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B11">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D11">
-        <v>175.4753</v>
+        <v>262.0636</v>
       </c>
       <c r="E11">
-        <v>199.3392</v>
+        <v>346297.1147</v>
       </c>
       <c r="F11">
-        <v>2.07</v>
+        <v>1317.52</v>
       </c>
       <c r="G11">
-        <v>0.8802849615128384</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H11">
-        <v>1620778.5732</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I11">
-        <v>-0.2385</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D12">
-        <v>67.7856</v>
+        <v>262.0636</v>
       </c>
       <c r="E12">
-        <v>2051.8519</v>
+        <v>346297.1147</v>
       </c>
       <c r="F12">
-        <v>385.48</v>
+        <v>1317.52</v>
       </c>
       <c r="G12">
-        <v>0.03303630247387738</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H12">
-        <v>17273879446.5675</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I12">
-        <v>-0.8225</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B13">
@@ -778,36 +778,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D13">
-        <v>167.2398</v>
+        <v>262.0636</v>
       </c>
       <c r="E13">
-        <v>186.524</v>
+        <v>346297.1147</v>
       </c>
       <c r="F13">
-        <v>2.62</v>
+        <v>1317.52</v>
       </c>
       <c r="G13">
-        <v>0.8966127683300809</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H13">
-        <v>323457.7288</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I13">
-        <v>-0.015</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B14">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -815,32 +815,32 @@
         </is>
       </c>
       <c r="D14">
-        <v>259.5819</v>
+        <v>262.0636</v>
       </c>
       <c r="E14">
-        <v>285.3169</v>
+        <v>346297.1147</v>
       </c>
       <c r="F14">
-        <v>2.09</v>
+        <v>1317.52</v>
       </c>
       <c r="G14">
-        <v>0.9098020481787096</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H14">
-        <v>1290793.4812</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I14">
-        <v>-0.153</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B15">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -848,88 +848,88 @@
         </is>
       </c>
       <c r="D15">
-        <v>285.1397</v>
+        <v>262.0636</v>
       </c>
       <c r="E15">
-        <v>2781591.2417</v>
+        <v>346297.1147</v>
       </c>
       <c r="F15">
-        <v>933.61</v>
+        <v>1317.52</v>
       </c>
       <c r="G15">
-        <v>0.0001025095620540327</v>
+        <v>0.0007567594094078082</v>
       </c>
       <c r="H15">
-        <v>111894461.2288</v>
+        <v>1982720.6982</v>
       </c>
       <c r="I15">
-        <v>-0.1606</v>
+        <v>0.8556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B16">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D16">
-        <v>225.8824</v>
+        <v>250.3906</v>
       </c>
       <c r="E16">
-        <v>250.564</v>
+        <v>352.6542</v>
       </c>
       <c r="F16">
-        <v>8.210000000000001</v>
+        <v>20.81</v>
       </c>
       <c r="G16">
-        <v>0.9014958254178572</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H16">
-        <v>2775941.6876</v>
+        <v>345222.3559</v>
       </c>
       <c r="I16">
-        <v>0.3049</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B17">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D17">
-        <v>95.06229999999999</v>
+        <v>250.3906</v>
       </c>
       <c r="E17">
-        <v>918.0499</v>
+        <v>352.6542</v>
       </c>
       <c r="F17">
-        <v>33.3</v>
+        <v>20.81</v>
       </c>
       <c r="G17">
-        <v>0.1035480751100784</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H17">
-        <v>24532592983.4695</v>
+        <v>345222.3559</v>
       </c>
       <c r="I17">
-        <v>-7.0143</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="18">
@@ -939,69 +939,69 @@
         </is>
       </c>
       <c r="B18">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D18">
-        <v>284.4788</v>
+        <v>250.3906</v>
       </c>
       <c r="E18">
-        <v>315.6029</v>
+        <v>352.6542</v>
       </c>
       <c r="F18">
-        <v>0.5</v>
+        <v>20.81</v>
       </c>
       <c r="G18">
-        <v>0.9013820848921223</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H18">
-        <v>153943008.8498</v>
+        <v>345222.3559</v>
       </c>
       <c r="I18">
-        <v>-0.3739</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B19">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D19">
-        <v>281.7069</v>
+        <v>250.3906</v>
       </c>
       <c r="E19">
-        <v>622.686</v>
+        <v>352.6542</v>
       </c>
       <c r="F19">
-        <v>133.02</v>
+        <v>20.81</v>
       </c>
       <c r="G19">
-        <v>0.4524060280783573</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H19">
-        <v>7786350.2862</v>
+        <v>345222.3559</v>
       </c>
       <c r="I19">
-        <v>0.0728</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B20">
@@ -1009,69 +1009,69 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D20">
-        <v>280.2944</v>
+        <v>250.3906</v>
       </c>
       <c r="E20">
-        <v>588.3081</v>
+        <v>352.6542</v>
       </c>
       <c r="F20">
-        <v>79.98</v>
+        <v>20.81</v>
       </c>
       <c r="G20">
-        <v>0.4764415108342041</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H20">
-        <v>105176441.6944</v>
+        <v>345222.3559</v>
       </c>
       <c r="I20">
-        <v>0.3092</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B21">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D21">
-        <v>182.5403</v>
+        <v>250.3906</v>
       </c>
       <c r="E21">
-        <v>207.4202</v>
+        <v>352.6542</v>
       </c>
       <c r="F21">
-        <v>9.789999999999999</v>
+        <v>20.81</v>
       </c>
       <c r="G21">
-        <v>0.880050737584864</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H21">
-        <v>33183238.3176</v>
+        <v>345222.3559</v>
       </c>
       <c r="I21">
-        <v>0.206</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1079,22 +1079,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>209.2492</v>
+        <v>191.759</v>
       </c>
       <c r="E22">
-        <v>3732.2371</v>
+        <v>1343.1877</v>
       </c>
       <c r="F22">
-        <v>786.24</v>
+        <v>696.89</v>
       </c>
       <c r="G22">
-        <v>0.0560653555477491</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H22">
-        <v>1090703134.3701</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I22">
-        <v>0.5199</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="23">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1112,32 +1112,32 @@
         </is>
       </c>
       <c r="D23">
-        <v>257.9469</v>
+        <v>191.759</v>
       </c>
       <c r="E23">
-        <v>2485.7772</v>
+        <v>1343.1877</v>
       </c>
       <c r="F23">
-        <v>855.39</v>
+        <v>696.89</v>
       </c>
       <c r="G23">
-        <v>0.1037691149472286</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H23">
-        <v>35928493.2927</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I23">
-        <v>0.2719</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1145,55 +1145,55 @@
         </is>
       </c>
       <c r="D24">
-        <v>218.4007</v>
+        <v>191.759</v>
       </c>
       <c r="E24">
-        <v>2771.9139</v>
+        <v>1343.1877</v>
       </c>
       <c r="F24">
-        <v>499.76</v>
+        <v>696.89</v>
       </c>
       <c r="G24">
-        <v>0.07879057859625438</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H24">
-        <v>10325054493.9236</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I24">
-        <v>-0.3904</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="B25">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D25">
-        <v>278.663</v>
+        <v>191.759</v>
       </c>
       <c r="E25">
-        <v>442138.6957</v>
+        <v>1343.1877</v>
       </c>
       <c r="F25">
-        <v>1409.52</v>
+        <v>696.89</v>
       </c>
       <c r="G25">
-        <v>0.0006302615055187987</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H25">
-        <v>17415121.0538</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I25">
-        <v>-2.771</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="26">
@@ -1203,36 +1203,36 @@
         </is>
       </c>
       <c r="B26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D26">
-        <v>193.6977</v>
+        <v>191.759</v>
       </c>
       <c r="E26">
-        <v>617.5034000000001</v>
+        <v>1343.1877</v>
       </c>
       <c r="F26">
-        <v>34.59</v>
+        <v>696.89</v>
       </c>
       <c r="G26">
-        <v>0.313678758691855</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H26">
-        <v>192827783781.4646</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I26">
-        <v>-1.9656</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>DF</t>
         </is>
       </c>
       <c r="B27">
@@ -1240,32 +1240,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D27">
-        <v>144.5362</v>
+        <v>191.759</v>
       </c>
       <c r="E27">
-        <v>165.0389</v>
+        <v>1343.1877</v>
       </c>
       <c r="F27">
-        <v>2.08</v>
+        <v>696.89</v>
       </c>
       <c r="G27">
-        <v>0.8757705001669304</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H27">
-        <v>27909113.9696</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I27">
-        <v>-0.08749999999999999</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="B28">
@@ -1277,121 +1277,1012 @@
         </is>
       </c>
       <c r="D28">
-        <v>167.4818</v>
+        <v>227.0712</v>
       </c>
       <c r="E28">
-        <v>209.1783</v>
+        <v>1183.3665</v>
       </c>
       <c r="F28">
-        <v>0.92</v>
+        <v>148.29</v>
       </c>
       <c r="G28">
-        <v>0.8006652697722468</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H28">
-        <v>3661039.193</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I28">
-        <v>0.4929</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B29">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D29">
-        <v>174.9313</v>
+        <v>227.0712</v>
       </c>
       <c r="E29">
-        <v>184.6152</v>
+        <v>1183.3665</v>
       </c>
       <c r="F29">
-        <v>0.18</v>
+        <v>148.29</v>
       </c>
       <c r="G29">
-        <v>0.947545489212156</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H29">
-        <v>633979657.6672</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I29">
-        <v>-2.9386</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D30">
-        <v>159.9252</v>
+        <v>227.0712</v>
       </c>
       <c r="E30">
-        <v>182.2689</v>
+        <v>1183.3665</v>
       </c>
       <c r="F30">
-        <v>3.44</v>
+        <v>148.29</v>
       </c>
       <c r="G30">
-        <v>0.8774135357156376</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H30">
-        <v>667720.0107</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I30">
-        <v>0.3915</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>227.0712</v>
+      </c>
+      <c r="E31">
+        <v>1183.3665</v>
+      </c>
+      <c r="F31">
+        <v>148.29</v>
+      </c>
+      <c r="G31">
+        <v>0.1918857767225961</v>
+      </c>
+      <c r="H31">
+        <v>11277217.1003</v>
+      </c>
+      <c r="I31">
+        <v>0.7174</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="B31">
+      <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>227.0712</v>
+      </c>
+      <c r="E32">
+        <v>1183.3665</v>
+      </c>
+      <c r="F32">
+        <v>148.29</v>
+      </c>
+      <c r="G32">
+        <v>0.1918857767225961</v>
+      </c>
+      <c r="H32">
+        <v>11277217.1003</v>
+      </c>
+      <c r="I32">
+        <v>0.7174</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B33">
+        <v>2017</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sph</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>227.0712</v>
+      </c>
+      <c r="E33">
+        <v>1183.3665</v>
+      </c>
+      <c r="F33">
+        <v>148.29</v>
+      </c>
+      <c r="G33">
+        <v>0.1918857767225961</v>
+      </c>
+      <c r="H33">
+        <v>11277217.1003</v>
+      </c>
+      <c r="I33">
+        <v>0.7174</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>270.3625</v>
+      </c>
+      <c r="E34">
+        <v>317.466</v>
+      </c>
+      <c r="F34">
+        <v>14.75</v>
+      </c>
+      <c r="G34">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H34">
+        <v>274710.9879</v>
+      </c>
+      <c r="I34">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>270.3625</v>
+      </c>
+      <c r="E35">
+        <v>317.466</v>
+      </c>
+      <c r="F35">
+        <v>14.75</v>
+      </c>
+      <c r="G35">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H35">
+        <v>274710.9879</v>
+      </c>
+      <c r="I35">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>270.3625</v>
+      </c>
+      <c r="E36">
+        <v>317.466</v>
+      </c>
+      <c r="F36">
+        <v>14.75</v>
+      </c>
+      <c r="G36">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H36">
+        <v>274710.9879</v>
+      </c>
+      <c r="I36">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>270.3625</v>
+      </c>
+      <c r="E37">
+        <v>317.466</v>
+      </c>
+      <c r="F37">
+        <v>14.75</v>
+      </c>
+      <c r="G37">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H37">
+        <v>274710.9879</v>
+      </c>
+      <c r="I37">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>270.3625</v>
+      </c>
+      <c r="E38">
+        <v>317.466</v>
+      </c>
+      <c r="F38">
+        <v>14.75</v>
+      </c>
+      <c r="G38">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H38">
+        <v>274710.9879</v>
+      </c>
+      <c r="I38">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>270.3625</v>
+      </c>
+      <c r="E39">
+        <v>317.466</v>
+      </c>
+      <c r="F39">
+        <v>14.75</v>
+      </c>
+      <c r="G39">
+        <v>0.8516266308833073</v>
+      </c>
+      <c r="H39">
+        <v>274710.9879</v>
+      </c>
+      <c r="I39">
+        <v>0.6786</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>2019</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>225.1558</v>
+      </c>
+      <c r="E40">
+        <v>270.3089</v>
+      </c>
+      <c r="F40">
+        <v>6.9</v>
+      </c>
+      <c r="G40">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H40">
+        <v>281132.2459</v>
+      </c>
+      <c r="I40">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>2019</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>225.1558</v>
+      </c>
+      <c r="E41">
+        <v>270.3089</v>
+      </c>
+      <c r="F41">
+        <v>6.9</v>
+      </c>
+      <c r="G41">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H41">
+        <v>281132.2459</v>
+      </c>
+      <c r="I41">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>2019</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>225.1558</v>
+      </c>
+      <c r="E42">
+        <v>270.3089</v>
+      </c>
+      <c r="F42">
+        <v>6.9</v>
+      </c>
+      <c r="G42">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H42">
+        <v>281132.2459</v>
+      </c>
+      <c r="I42">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>2019</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>225.1558</v>
+      </c>
+      <c r="E43">
+        <v>270.3089</v>
+      </c>
+      <c r="F43">
+        <v>6.9</v>
+      </c>
+      <c r="G43">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H43">
+        <v>281132.2459</v>
+      </c>
+      <c r="I43">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>225.1558</v>
+      </c>
+      <c r="E44">
+        <v>270.3089</v>
+      </c>
+      <c r="F44">
+        <v>6.9</v>
+      </c>
+      <c r="G44">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H44">
+        <v>281132.2459</v>
+      </c>
+      <c r="I44">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>225.1558</v>
+      </c>
+      <c r="E45">
+        <v>270.3089</v>
+      </c>
+      <c r="F45">
+        <v>6.9</v>
+      </c>
+      <c r="G45">
+        <v>0.8329574053980465</v>
+      </c>
+      <c r="H45">
+        <v>281132.2459</v>
+      </c>
+      <c r="I45">
+        <v>0.7258</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="B46">
         <v>2020</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Gau</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>183.5904</v>
-      </c>
-      <c r="E31">
-        <v>154253.1845</v>
-      </c>
-      <c r="F31">
-        <v>765.24</v>
-      </c>
-      <c r="G31">
-        <v>0.00119018871859984</v>
-      </c>
-      <c r="H31">
-        <v>2565007.9073</v>
-      </c>
-      <c r="I31">
-        <v>-0.7467</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>266.4829</v>
+      </c>
+      <c r="E46">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F46">
+        <v>2077.45</v>
+      </c>
+      <c r="G46">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H46">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I46">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>266.4829</v>
+      </c>
+      <c r="E47">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F47">
+        <v>2077.45</v>
+      </c>
+      <c r="G47">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H47">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I47">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>266.4829</v>
+      </c>
+      <c r="E48">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F48">
+        <v>2077.45</v>
+      </c>
+      <c r="G48">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H48">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I48">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>266.4829</v>
+      </c>
+      <c r="E49">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F49">
+        <v>2077.45</v>
+      </c>
+      <c r="G49">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H49">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I49">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>2020</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>266.4829</v>
+      </c>
+      <c r="E50">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F50">
+        <v>2077.45</v>
+      </c>
+      <c r="G50">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H50">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I50">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>266.4829</v>
+      </c>
+      <c r="E51">
+        <v>1056718.4595</v>
+      </c>
+      <c r="F51">
+        <v>2077.45</v>
+      </c>
+      <c r="G51">
+        <v>0.0002521796582659205</v>
+      </c>
+      <c r="H51">
+        <v>4303373.6198</v>
+      </c>
+      <c r="I51">
+        <v>-0.9319</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>2015</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>229.1075</v>
+      </c>
+      <c r="E52">
+        <v>283.6737</v>
+      </c>
+      <c r="F52">
+        <v>0.9</v>
+      </c>
+      <c r="G52">
+        <v>0.8076444873105966</v>
+      </c>
+      <c r="H52">
+        <v>2933700.6065</v>
+      </c>
+      <c r="I52">
+        <v>-0.2216</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>2016</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>36.575</v>
+      </c>
+      <c r="E53">
+        <v>1260.0677</v>
+      </c>
+      <c r="F53">
+        <v>153.81</v>
+      </c>
+      <c r="G53">
+        <v>0.02902621819446685</v>
+      </c>
+      <c r="H53">
+        <v>20263694278.0152</v>
+      </c>
+      <c r="I53">
+        <v>-7.634</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D54">
+        <v>260.5878</v>
+      </c>
+      <c r="E54">
+        <v>1665.581</v>
+      </c>
+      <c r="F54">
+        <v>635.92</v>
+      </c>
+      <c r="G54">
+        <v>0.1564545945228722</v>
+      </c>
+      <c r="H54">
+        <v>499337716.3757</v>
+      </c>
+      <c r="I54">
+        <v>-0.0574</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>2015</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D55">
+        <v>285.635</v>
+      </c>
+      <c r="E55">
+        <v>1274.1262</v>
+      </c>
+      <c r="F55">
+        <v>354.76</v>
+      </c>
+      <c r="G55">
+        <v>0.2241810897539035</v>
+      </c>
+      <c r="H55">
+        <v>209321758.9299</v>
+      </c>
+      <c r="I55">
+        <v>-1.9552</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>2018</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Gau</t>
+        </is>
+      </c>
+      <c r="D56">
+        <v>211.1502</v>
+      </c>
+      <c r="E56">
+        <v>430165.8016</v>
+      </c>
+      <c r="F56">
+        <v>2097.54</v>
+      </c>
+      <c r="G56">
+        <v>0.0004908577093172625</v>
+      </c>
+      <c r="H56">
+        <v>1104022.5507</v>
+      </c>
+      <c r="I56">
+        <v>-0.5837</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>2019</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D57">
+        <v>159.4062</v>
+      </c>
+      <c r="E57">
+        <v>182.2181</v>
+      </c>
+      <c r="F57">
+        <v>3.3</v>
+      </c>
+      <c r="G57">
+        <v>0.874809911858372</v>
+      </c>
+      <c r="H57">
+        <v>1414445.6953</v>
+      </c>
+      <c r="I57">
+        <v>0.3492</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="D58">
+        <v>135.0935</v>
+      </c>
+      <c r="E58">
+        <v>2352.0579</v>
+      </c>
+      <c r="F58">
+        <v>693.52</v>
+      </c>
+      <c r="G58">
+        <v>0.05743629865574314</v>
+      </c>
+      <c r="H58">
+        <v>1963738342.5195</v>
+      </c>
+      <c r="I58">
+        <v>-2.7243</v>
       </c>
     </row>
   </sheetData>

--- a/output/semivariogram-models-xch4.xlsx
+++ b/output/semivariogram-models-xch4.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -683,22 +683,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E10">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F10">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G10">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H10">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I10">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="11">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E11">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F11">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G11">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H11">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I11">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="12">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -749,22 +749,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E12">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F12">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G12">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H12">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I12">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="13">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E13">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F13">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G13">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H13">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I13">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="14">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -815,22 +815,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E14">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F14">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G14">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H14">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I14">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="15">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -848,22 +848,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>262.0636</v>
+        <v>250.3906</v>
       </c>
       <c r="E15">
-        <v>346297.1147</v>
+        <v>352.6542</v>
       </c>
       <c r="F15">
-        <v>1317.52</v>
+        <v>20.81</v>
       </c>
       <c r="G15">
-        <v>0.0007567594094078082</v>
+        <v>0.7100173484393494</v>
       </c>
       <c r="H15">
-        <v>1982720.6982</v>
+        <v>345222.3559</v>
       </c>
       <c r="I15">
-        <v>0.8556</v>
+        <v>0.6216</v>
       </c>
     </row>
     <row r="16">
@@ -873,30 +873,30 @@
         </is>
       </c>
       <c r="B16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D16">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E16">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F16">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G16">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H16">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I16">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="17">
@@ -906,30 +906,30 @@
         </is>
       </c>
       <c r="B17">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D17">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E17">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F17">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G17">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H17">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I17">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="18">
@@ -939,30 +939,30 @@
         </is>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D18">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E18">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F18">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G18">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H18">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I18">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="19">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="B19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D19">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E19">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F19">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G19">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H19">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I19">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="20">
@@ -1005,30 +1005,30 @@
         </is>
       </c>
       <c r="B20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D20">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E20">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F20">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G20">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H20">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I20">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="21">
@@ -1038,30 +1038,30 @@
         </is>
       </c>
       <c r="B21">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D21">
-        <v>250.3906</v>
+        <v>191.759</v>
       </c>
       <c r="E21">
-        <v>352.6542</v>
+        <v>1343.1877</v>
       </c>
       <c r="F21">
-        <v>20.81</v>
+        <v>696.89</v>
       </c>
       <c r="G21">
-        <v>0.7100173484393494</v>
+        <v>0.1427641125659504</v>
       </c>
       <c r="H21">
-        <v>345222.3559</v>
+        <v>3749912.6892</v>
       </c>
       <c r="I21">
-        <v>0.6216</v>
+        <v>0.7063</v>
       </c>
     </row>
     <row r="22">
@@ -1071,30 +1071,30 @@
         </is>
       </c>
       <c r="B22">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D22">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E22">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F22">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G22">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H22">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I22">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="23">
@@ -1104,30 +1104,30 @@
         </is>
       </c>
       <c r="B23">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D23">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E23">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F23">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G23">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H23">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I23">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="24">
@@ -1137,30 +1137,30 @@
         </is>
       </c>
       <c r="B24">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D24">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E24">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F24">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G24">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H24">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I24">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="25">
@@ -1170,30 +1170,30 @@
         </is>
       </c>
       <c r="B25">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D25">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E25">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F25">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G25">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H25">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I25">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="26">
@@ -1203,30 +1203,30 @@
         </is>
       </c>
       <c r="B26">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D26">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E26">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F26">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G26">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H26">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I26">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="27">
@@ -1236,30 +1236,30 @@
         </is>
       </c>
       <c r="B27">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>Sph</t>
         </is>
       </c>
       <c r="D27">
-        <v>191.759</v>
+        <v>227.0712</v>
       </c>
       <c r="E27">
-        <v>1343.1877</v>
+        <v>1183.3665</v>
       </c>
       <c r="F27">
-        <v>696.89</v>
+        <v>148.29</v>
       </c>
       <c r="G27">
-        <v>0.1427641125659504</v>
+        <v>0.1918857767225961</v>
       </c>
       <c r="H27">
-        <v>3749912.6892</v>
+        <v>11277217.1003</v>
       </c>
       <c r="I27">
-        <v>0.7063</v>
+        <v>0.7174</v>
       </c>
     </row>
     <row r="28">
@@ -1269,30 +1269,30 @@
         </is>
       </c>
       <c r="B28">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D28">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E28">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F28">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G28">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H28">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I28">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="29">
@@ -1302,30 +1302,30 @@
         </is>
       </c>
       <c r="B29">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D29">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E29">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F29">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G29">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H29">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I29">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="30">
@@ -1335,30 +1335,30 @@
         </is>
       </c>
       <c r="B30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D30">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E30">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F30">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G30">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H30">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I30">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="31">
@@ -1368,30 +1368,30 @@
         </is>
       </c>
       <c r="B31">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D31">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E31">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F31">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G31">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H31">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I31">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="32">
@@ -1401,30 +1401,30 @@
         </is>
       </c>
       <c r="B32">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D32">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E32">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F32">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G32">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H32">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I32">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="33">
@@ -1434,30 +1434,30 @@
         </is>
       </c>
       <c r="B33">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sph</t>
+          <t>Gau</t>
         </is>
       </c>
       <c r="D33">
-        <v>227.0712</v>
+        <v>270.3625</v>
       </c>
       <c r="E33">
-        <v>1183.3665</v>
+        <v>317.466</v>
       </c>
       <c r="F33">
-        <v>148.29</v>
+        <v>14.75</v>
       </c>
       <c r="G33">
-        <v>0.1918857767225961</v>
+        <v>0.8516266308833073</v>
       </c>
       <c r="H33">
-        <v>11277217.1003</v>
+        <v>274710.9879</v>
       </c>
       <c r="I33">
-        <v>0.7174</v>
+        <v>0.6786</v>
       </c>
     </row>
     <row r="34">
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="D34">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E34">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F34">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G34">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H34">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I34">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="35">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1508,22 +1508,22 @@
         </is>
       </c>
       <c r="D35">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E35">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F35">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G35">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H35">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I35">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="36">
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="D36">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E36">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F36">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G36">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H36">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I36">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="37">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="D37">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E37">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F37">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G37">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H37">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I37">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="38">
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1607,22 +1607,22 @@
         </is>
       </c>
       <c r="D38">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E38">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F38">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G38">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H38">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I38">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="39">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1640,22 +1640,22 @@
         </is>
       </c>
       <c r="D39">
-        <v>270.3625</v>
+        <v>225.1558</v>
       </c>
       <c r="E39">
-        <v>317.466</v>
+        <v>270.3089</v>
       </c>
       <c r="F39">
-        <v>14.75</v>
+        <v>6.9</v>
       </c>
       <c r="G39">
-        <v>0.8516266308833073</v>
+        <v>0.8329574053980465</v>
       </c>
       <c r="H39">
-        <v>274710.9879</v>
+        <v>281132.2459</v>
       </c>
       <c r="I39">
-        <v>0.6786</v>
+        <v>0.7258</v>
       </c>
     </row>
     <row r="40">
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="D40">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E40">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F40">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G40">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H40">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I40">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="41">
@@ -1698,7 +1698,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1706,22 +1706,22 @@
         </is>
       </c>
       <c r="D41">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E41">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F41">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G41">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H41">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I41">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="42">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="D42">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E42">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F42">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G42">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H42">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I42">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="43">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1772,22 +1772,22 @@
         </is>
       </c>
       <c r="D43">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E43">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F43">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G43">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H43">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I43">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="44">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="D44">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E44">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F44">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G44">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H44">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I44">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="45">
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1838,88 +1838,88 @@
         </is>
       </c>
       <c r="D45">
-        <v>225.1558</v>
+        <v>266.4829</v>
       </c>
       <c r="E45">
-        <v>270.3089</v>
+        <v>1056718.4595</v>
       </c>
       <c r="F45">
-        <v>6.9</v>
+        <v>2077.45</v>
       </c>
       <c r="G45">
-        <v>0.8329574053980465</v>
+        <v>0.0002521796582659205</v>
       </c>
       <c r="H45">
-        <v>281132.2459</v>
+        <v>4303373.6198</v>
       </c>
       <c r="I45">
-        <v>0.7258</v>
+        <v>-0.9319</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B46">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D46">
-        <v>266.4829</v>
+        <v>229.1075</v>
       </c>
       <c r="E46">
-        <v>1056718.4595</v>
+        <v>283.6737</v>
       </c>
       <c r="F46">
-        <v>2077.45</v>
+        <v>0.9</v>
       </c>
       <c r="G46">
-        <v>0.0002521796582659205</v>
+        <v>0.8076444873105966</v>
       </c>
       <c r="H46">
-        <v>4303373.6198</v>
+        <v>2933700.6065</v>
       </c>
       <c r="I46">
-        <v>-0.9319</v>
+        <v>-0.2216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="B47">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D47">
-        <v>266.4829</v>
+        <v>36.575</v>
       </c>
       <c r="E47">
-        <v>1056718.4595</v>
+        <v>1260.0677</v>
       </c>
       <c r="F47">
-        <v>2077.45</v>
+        <v>153.81</v>
       </c>
       <c r="G47">
-        <v>0.0002521796582659205</v>
+        <v>0.02902621819446685</v>
       </c>
       <c r="H47">
-        <v>4303373.6198</v>
+        <v>20263694278.0152</v>
       </c>
       <c r="I47">
-        <v>-0.9319</v>
+        <v>-7.634</v>
       </c>
     </row>
     <row r="48">
@@ -1933,59 +1933,59 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D48">
-        <v>266.4829</v>
+        <v>260.5878</v>
       </c>
       <c r="E48">
-        <v>1056718.4595</v>
+        <v>1665.581</v>
       </c>
       <c r="F48">
-        <v>2077.45</v>
+        <v>635.92</v>
       </c>
       <c r="G48">
-        <v>0.0002521796582659205</v>
+        <v>0.1564545945228722</v>
       </c>
       <c r="H48">
-        <v>4303373.6198</v>
+        <v>499337716.3757</v>
       </c>
       <c r="I48">
-        <v>-0.9319</v>
+        <v>-0.0574</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B49">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D49">
-        <v>266.4829</v>
+        <v>285.635</v>
       </c>
       <c r="E49">
-        <v>1056718.4595</v>
+        <v>1274.1262</v>
       </c>
       <c r="F49">
-        <v>2077.45</v>
+        <v>354.76</v>
       </c>
       <c r="G49">
-        <v>0.0002521796582659205</v>
+        <v>0.2241810897539035</v>
       </c>
       <c r="H49">
-        <v>4303373.6198</v>
+        <v>209321758.9299</v>
       </c>
       <c r="I49">
-        <v>-0.9319</v>
+        <v>-1.9552</v>
       </c>
     </row>
     <row r="50">
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2003,65 +2003,65 @@
         </is>
       </c>
       <c r="D50">
-        <v>266.4829</v>
+        <v>211.1502</v>
       </c>
       <c r="E50">
-        <v>1056718.4595</v>
+        <v>430165.8016</v>
       </c>
       <c r="F50">
-        <v>2077.45</v>
+        <v>2097.54</v>
       </c>
       <c r="G50">
-        <v>0.0002521796582659205</v>
+        <v>0.0004908577093172625</v>
       </c>
       <c r="H50">
-        <v>4303373.6198</v>
+        <v>1104022.5507</v>
       </c>
       <c r="I50">
-        <v>-0.9319</v>
+        <v>-0.5837</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DF</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B51">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Gau</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="D51">
-        <v>266.4829</v>
+        <v>159.4062</v>
       </c>
       <c r="E51">
-        <v>1056718.4595</v>
+        <v>182.2181</v>
       </c>
       <c r="F51">
-        <v>2077.45</v>
+        <v>3.3</v>
       </c>
       <c r="G51">
-        <v>0.0002521796582659205</v>
+        <v>0.874809911858372</v>
       </c>
       <c r="H51">
-        <v>4303373.6198</v>
+        <v>1414445.6953</v>
       </c>
       <c r="I51">
-        <v>-0.9319</v>
+        <v>0.3492</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B52">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2069,219 +2069,21 @@
         </is>
       </c>
       <c r="D52">
-        <v>229.1075</v>
+        <v>135.0935</v>
       </c>
       <c r="E52">
-        <v>283.6737</v>
+        <v>2352.0579</v>
       </c>
       <c r="F52">
-        <v>0.9</v>
+        <v>693.52</v>
       </c>
       <c r="G52">
-        <v>0.8076444873105966</v>
+        <v>0.05743629865574314</v>
       </c>
       <c r="H52">
-        <v>2933700.6065</v>
+        <v>1963738342.5195</v>
       </c>
       <c r="I52">
-        <v>-0.2216</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>2016</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>36.575</v>
-      </c>
-      <c r="E53">
-        <v>1260.0677</v>
-      </c>
-      <c r="F53">
-        <v>153.81</v>
-      </c>
-      <c r="G53">
-        <v>0.02902621819446685</v>
-      </c>
-      <c r="H53">
-        <v>20263694278.0152</v>
-      </c>
-      <c r="I53">
-        <v>-7.634</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>2020</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>260.5878</v>
-      </c>
-      <c r="E54">
-        <v>1665.581</v>
-      </c>
-      <c r="F54">
-        <v>635.92</v>
-      </c>
-      <c r="G54">
-        <v>0.1564545945228722</v>
-      </c>
-      <c r="H54">
-        <v>499337716.3757</v>
-      </c>
-      <c r="I54">
-        <v>-0.0574</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>MT</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>2015</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D55">
-        <v>285.635</v>
-      </c>
-      <c r="E55">
-        <v>1274.1262</v>
-      </c>
-      <c r="F55">
-        <v>354.76</v>
-      </c>
-      <c r="G55">
-        <v>0.2241810897539035</v>
-      </c>
-      <c r="H55">
-        <v>209321758.9299</v>
-      </c>
-      <c r="I55">
-        <v>-1.9552</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>2018</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Gau</t>
-        </is>
-      </c>
-      <c r="D56">
-        <v>211.1502</v>
-      </c>
-      <c r="E56">
-        <v>430165.8016</v>
-      </c>
-      <c r="F56">
-        <v>2097.54</v>
-      </c>
-      <c r="G56">
-        <v>0.0004908577093172625</v>
-      </c>
-      <c r="H56">
-        <v>1104022.5507</v>
-      </c>
-      <c r="I56">
-        <v>-0.5837</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>2019</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D57">
-        <v>159.4062</v>
-      </c>
-      <c r="E57">
-        <v>182.2181</v>
-      </c>
-      <c r="F57">
-        <v>3.3</v>
-      </c>
-      <c r="G57">
-        <v>0.874809911858372</v>
-      </c>
-      <c r="H57">
-        <v>1414445.6953</v>
-      </c>
-      <c r="I57">
-        <v>0.3492</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>PA</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>2020</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="D58">
-        <v>135.0935</v>
-      </c>
-      <c r="E58">
-        <v>2352.0579</v>
-      </c>
-      <c r="F58">
-        <v>693.52</v>
-      </c>
-      <c r="G58">
-        <v>0.05743629865574314</v>
-      </c>
-      <c r="H58">
-        <v>1963738342.5195</v>
-      </c>
-      <c r="I58">
         <v>-2.7243</v>
       </c>
     </row>
